--- a/data/trans_dic/P69$problemSueño-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P69$problemSueño-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1131282416217375</v>
+        <v>0.1146642311624307</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2022004720687187</v>
+        <v>0.2060909745925435</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1069992875801714</v>
+        <v>0.1159804165564718</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09544059274183615</v>
+        <v>0.1004516594814619</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1320231909730347</v>
+        <v>0.1343297544906725</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2428435305756997</v>
+        <v>0.249775599228838</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2566847047527679</v>
+        <v>0.2761503537241386</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2467446164921302</v>
+        <v>0.2477991027165277</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1461737149479506</v>
+        <v>0.1486164948992115</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2477991615568031</v>
+        <v>0.2522284145981443</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2023871188120564</v>
+        <v>0.2034450168290494</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1942474760524054</v>
+        <v>0.1941432604494387</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.29880057909702</v>
+        <v>0.3070037563960895</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4146437475676765</v>
+        <v>0.4156024516102135</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.294778800741932</v>
+        <v>0.3079134770633939</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3108212881552254</v>
+        <v>0.3132251174563138</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3945848434002958</v>
+        <v>0.3889314958535497</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4886868727049406</v>
+        <v>0.4835398159010339</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5015088227169565</v>
+        <v>0.5043995542272494</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4746852358341294</v>
+        <v>0.4771126192533766</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2968970088952398</v>
+        <v>0.2939399813928314</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4051863603416834</v>
+        <v>0.4119292653872928</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3584826407813822</v>
+        <v>0.3551213280274509</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3487885017372714</v>
+        <v>0.348583360333436</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.148015747376935</v>
+        <v>0.1512909197584424</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2214952318553782</v>
+        <v>0.219570621805033</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1354179074384627</v>
+        <v>0.1306898619284819</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.11776908965088</v>
+        <v>0.1206672282029436</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.08060351594705509</v>
+        <v>0.08006581495155725</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1701822787137088</v>
+        <v>0.1771965218456981</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1669058603830021</v>
+        <v>0.1708197478292037</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1687967010407815</v>
+        <v>0.1777244447130731</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.147425272393009</v>
+        <v>0.1452813439921046</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2307480715085145</v>
+        <v>0.2298518400802227</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1630378966814349</v>
+        <v>0.1652347018011475</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1647289529758599</v>
+        <v>0.1600671163978239</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2823452360538762</v>
+        <v>0.2862449480100718</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.421430142037955</v>
+        <v>0.4152011521470952</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2953191675317773</v>
+        <v>0.2921933186262127</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2852010475678732</v>
+        <v>0.2764584209196539</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2609976399174602</v>
+        <v>0.2600200104237556</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4215580262174327</v>
+        <v>0.4108854785941836</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4064744340184357</v>
+        <v>0.4081106403013893</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3160146734470104</v>
+        <v>0.3204328000214315</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2542368181349958</v>
+        <v>0.2557398862309134</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3761860595390451</v>
+        <v>0.3750919472121138</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2983270799149706</v>
+        <v>0.3020153307670848</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2844948589182751</v>
+        <v>0.2733860106232532</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.2670446988383942</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2189543159453875</v>
+        <v>0.2189543159453876</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2182647002345293</v>
@@ -969,7 +969,7 @@
         <v>0.2583147025539007</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2394031197068975</v>
+        <v>0.2394031197068974</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1525415301806576</v>
+        <v>0.15979683401567</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.125730981314234</v>
+        <v>0.1263018420575542</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1714495910245372</v>
+        <v>0.1642767822626636</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1663643529437408</v>
+        <v>0.1703739686292199</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1373538547061582</v>
+        <v>0.1381453720015191</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09502508358202028</v>
+        <v>0.1083281928562064</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1530161367382782</v>
+        <v>0.1493950915175495</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1533291097922898</v>
+        <v>0.1524353362361503</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1684385731067079</v>
+        <v>0.1646474503690598</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1397877015485692</v>
+        <v>0.14119111896603</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1755233846908544</v>
+        <v>0.1857329663313609</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1758804331283819</v>
+        <v>0.1835193097105061</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2939250479920882</v>
+        <v>0.2981190280887656</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2802119198194223</v>
+        <v>0.2862810666801149</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3669263298801381</v>
+        <v>0.3690158468091288</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3755613342389293</v>
+        <v>0.3909734819515286</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3402751706206681</v>
+        <v>0.3452479820901686</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.339486429718053</v>
+        <v>0.342681047611713</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4055107726864192</v>
+        <v>0.4031593610695028</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2948422212953219</v>
+        <v>0.2935216542068619</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2815761407354186</v>
+        <v>0.2814615867675067</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2771156917259494</v>
+        <v>0.2711167739108428</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3324294894765622</v>
+        <v>0.3393235400224043</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3146314830943786</v>
+        <v>0.3249755509954811</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.3334327487473103</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.176509636366016</v>
+        <v>0.1765096363660161</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2882458188427639</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.200860885176759</v>
+        <v>0.2201042299255683</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1070319490062187</v>
+        <v>0.1181322382671573</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2164363222728496</v>
+        <v>0.2036393627461281</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1021416779169902</v>
+        <v>0.1019457041798119</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1367298936086086</v>
+        <v>0.1560680412535618</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1450465533879693</v>
+        <v>0.1648014294981704</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2500870507726978</v>
+        <v>0.2483338400331064</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2518985161888333</v>
+        <v>0.2608551506230004</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2167750971553996</v>
+        <v>0.2187889108410066</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1674426094953831</v>
+        <v>0.1565847683457146</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.26673479514678</v>
+        <v>0.2581450057061133</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.19719603544995</v>
+        <v>0.1969498993731027</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4354775981180957</v>
+        <v>0.4401535807123976</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3656838086550381</v>
+        <v>0.358526276910227</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4813828636192978</v>
+        <v>0.4738363958225191</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.279531292825112</v>
+        <v>0.2778124058424881</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4748442367702388</v>
+        <v>0.4781236794940541</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4291166359583171</v>
+        <v>0.4524238570514368</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5465508174755269</v>
+        <v>0.5400604753042584</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4439651087752662</v>
+        <v>0.4418572877668681</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3964066872865599</v>
+        <v>0.4074386765978119</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.344229305299085</v>
+        <v>0.3505250207050711</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4578914052217995</v>
+        <v>0.4553017817656537</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3245950506408322</v>
+        <v>0.3250975554432451</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1894013191336443</v>
+        <v>0.1873924258736802</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.212914236945133</v>
+        <v>0.2132797008437958</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1929714364115026</v>
+        <v>0.1897485423739533</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1580740205491477</v>
+        <v>0.1575323745155926</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1619313647916679</v>
+        <v>0.166400985339355</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.229563545141481</v>
+        <v>0.2264614282888622</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.259377463026892</v>
+        <v>0.2617988119915161</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2393670715876761</v>
+        <v>0.2379329042502664</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1904501091331066</v>
+        <v>0.1910048197338785</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.235429988817867</v>
+        <v>0.2329934348966392</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2304844252582223</v>
+        <v>0.2358429918395491</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2098126425274849</v>
+        <v>0.2067676212335737</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2691109502259632</v>
+        <v>0.2680494230285334</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3119445969682927</v>
+        <v>0.3135876314678778</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2898806496830991</v>
+        <v>0.2917749375886922</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2599526166558178</v>
+        <v>0.2585170111227104</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2746614329706836</v>
+        <v>0.2743791551200981</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3565209468902569</v>
+        <v>0.3551324452427662</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3913119486766963</v>
+        <v>0.3878154785327563</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3273807780981681</v>
+        <v>0.3252940021365717</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2576141302133736</v>
+        <v>0.2555731421493981</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3150190107397798</v>
+        <v>0.3132789297786411</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3098504751068403</v>
+        <v>0.3164680957986553</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2737257011744659</v>
+        <v>0.2747985284179002</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9546</v>
+        <v>9676</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>16867</v>
+        <v>17192</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8880</v>
+        <v>9625</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5557</v>
+        <v>5848</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6003</v>
+        <v>6108</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>17057</v>
+        <v>17544</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>16244</v>
+        <v>17476</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>14327</v>
+        <v>14389</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>18981</v>
+        <v>19298</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>38076</v>
+        <v>38757</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>29604</v>
+        <v>29759</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>22589</v>
+        <v>22577</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>25214</v>
+        <v>25907</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>34589</v>
+        <v>34669</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>24464</v>
+        <v>25554</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>18097</v>
+        <v>18237</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>17941</v>
+        <v>17684</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>34325</v>
+        <v>33963</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>31738</v>
+        <v>31921</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>27563</v>
+        <v>27704</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>38553</v>
+        <v>38169</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>62260</v>
+        <v>63296</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>52437</v>
+        <v>51946</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>40560</v>
+        <v>40536</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>25529</v>
+        <v>26094</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>19678</v>
+        <v>19507</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>14886</v>
+        <v>14366</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>14969</v>
+        <v>15337</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>5279</v>
+        <v>5243</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>10576</v>
+        <v>11012</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>10038</v>
+        <v>10273</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>17667</v>
+        <v>18602</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>35082</v>
+        <v>34572</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>34839</v>
+        <v>34704</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>27727</v>
+        <v>28101</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>38179</v>
+        <v>37098</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>48698</v>
+        <v>49371</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>37440</v>
+        <v>36886</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>32463</v>
+        <v>32119</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>36250</v>
+        <v>35138</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>17092</v>
+        <v>17028</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>26198</v>
+        <v>25534</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>24446</v>
+        <v>24545</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>33076</v>
+        <v>33538</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>60500</v>
+        <v>60858</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>56798</v>
+        <v>56633</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>50736</v>
+        <v>51363</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>65937</v>
+        <v>63362</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>22406</v>
+        <v>23472</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>13446</v>
+        <v>13507</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>15107</v>
+        <v>14475</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>16077</v>
+        <v>16465</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>10684</v>
+        <v>10745</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4071</v>
+        <v>4640</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7070</v>
+        <v>6903</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>14479</v>
+        <v>14395</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>37843</v>
+        <v>36991</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>20937</v>
+        <v>21147</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>23576</v>
+        <v>24947</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>33606</v>
+        <v>35066</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>43173</v>
+        <v>43789</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>29966</v>
+        <v>30615</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>32331</v>
+        <v>32515</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>36294</v>
+        <v>37784</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>26468</v>
+        <v>26854</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14543</v>
+        <v>14679</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>18737</v>
+        <v>18628</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>27843</v>
+        <v>27718</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>63261</v>
+        <v>63235</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>41506</v>
+        <v>40607</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>44652</v>
+        <v>45578</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>60118</v>
+        <v>62094</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>13606</v>
+        <v>14909</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5033</v>
+        <v>5556</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>14316</v>
+        <v>13470</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>10058</v>
+        <v>10039</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4291</v>
+        <v>4898</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5598</v>
+        <v>6361</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>11671</v>
+        <v>11589</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>20619</v>
+        <v>21352</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>21486</v>
+        <v>21686</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>14337</v>
+        <v>13407</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>30090</v>
+        <v>29121</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>35560</v>
+        <v>35515</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>29498</v>
+        <v>29814</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>17197</v>
+        <v>16861</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>31841</v>
+        <v>31341</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>27526</v>
+        <v>27357</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>14902</v>
+        <v>15004</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>16562</v>
+        <v>17461</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>25505</v>
+        <v>25202</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>36341</v>
+        <v>36168</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>39291</v>
+        <v>40385</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>29474</v>
+        <v>30013</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>51655</v>
+        <v>51363</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>58533</v>
+        <v>58624</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>89300</v>
+        <v>88353</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>69458</v>
+        <v>69577</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>66995</v>
+        <v>65876</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>60137</v>
+        <v>59931</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>35644</v>
+        <v>36628</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>49084</v>
+        <v>48421</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>56103</v>
+        <v>56627</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>81150</v>
+        <v>80664</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>131716</v>
+        <v>132100</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>127142</v>
+        <v>125826</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>129872</v>
+        <v>132891</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>150951</v>
+        <v>148760</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>126882</v>
+        <v>126381</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>101764</v>
+        <v>102300</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>100639</v>
+        <v>101297</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>98895</v>
+        <v>98349</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>60459</v>
+        <v>60397</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>76230</v>
+        <v>75933</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>84640</v>
+        <v>83884</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>110989</v>
+        <v>110281</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>178167</v>
+        <v>176756</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>170123</v>
+        <v>169183</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>174592</v>
+        <v>178321</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>196933</v>
+        <v>197705</v>
       </c>
     </row>
     <row r="24">
